--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="250">
   <si>
     <t>Договор</t>
   </si>
@@ -383,9 +383,6 @@
     <t>вариант представления\бухсчет, аналитика, актив, лицо, договор, бюджет</t>
   </si>
   <si>
-    <t>теперь это аналитика "лицо"</t>
-  </si>
-  <si>
     <t>дата договора</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>Заполнить, дозаполнить -если уже есть строки</t>
   </si>
   <si>
-    <t>склад и обновременно банк счет, касса</t>
-  </si>
-  <si>
     <t>BudgetId</t>
   </si>
   <si>
@@ -623,9 +617,6 @@
     <t>роль дока, формы</t>
   </si>
   <si>
-    <t>вид представления</t>
-  </si>
-  <si>
     <t>роль лица</t>
   </si>
   <si>
@@ -716,9 +707,6 @@
     <t>состав договора и одновременно проводки по приходу или расходу склада</t>
   </si>
   <si>
-    <t>2 слой данных = шаблоны заполнения docdata в зависмости от operation\role</t>
-  </si>
-  <si>
     <t>https://github.com/KursakovSA/AccBase</t>
   </si>
   <si>
@@ -734,9 +722,6 @@
     <t>роль структуры документа, роль дока (формы и т.д.)</t>
   </si>
   <si>
-    <t>проводка, аналитика, субаналитика</t>
-  </si>
-  <si>
     <t>Данные журнала</t>
   </si>
   <si>
@@ -816,13 +801,22 @@
   </si>
   <si>
     <t>Basis</t>
+  </si>
+  <si>
+    <t>проводки, аналитика, субаналитика</t>
+  </si>
+  <si>
+    <t>склад, банк счет, касса</t>
+  </si>
+  <si>
+    <t>аналитика "лицо"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -905,18 +899,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Franklin Gothic Medium"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1054,12 +1036,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1221,17 +1202,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_DocData" xfId="4"/>
     <cellStyle name="Обычный_FaceRoleKind_1" xfId="2"/>
     <cellStyle name="Обычный_Лист1" xfId="3"/>
   </cellStyles>
@@ -1562,13 +1544,13 @@
       <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>219</v>
+      <c r="A5" s="85" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1587,9 +1569,11 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1602,12 +1586,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1644,10 +1628,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1675,11 +1659,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>173</v>
+      <c r="A11" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1740,13 +1724,13 @@
     </row>
     <row r="18" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -1756,10 +1740,10 @@
     </row>
     <row r="19" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="29"/>
@@ -1769,11 +1753,11 @@
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>251</v>
+      <c r="A20" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="29"/>
@@ -1783,11 +1767,11 @@
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>250</v>
+      <c r="A21" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="29"/>
@@ -1796,35 +1780,49 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="29"/>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="4"/>
+    <row r="22" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
+      <c r="B26" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1834,9 +1832,11 @@
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1901,11 +1901,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>173</v>
+      <c r="A9" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1967,70 +1967,79 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C16" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>251</v>
+      <c r="A18" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>250</v>
+      <c r="A19" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>247</v>
+      <c r="A20" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>245</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>169</v>
-      </c>
+      <c r="A21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2045,9 +2054,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C23"/>
+  <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2060,15 +2071,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2084,15 +2095,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2120,11 +2131,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2179,63 +2190,72 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>251</v>
+      <c r="A19" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>250</v>
+      <c r="A20" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
-      </c>
+      <c r="A21" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>169</v>
+      <c r="A22" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -2248,9 +2268,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2260,7 +2282,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2273,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2281,7 +2303,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2297,15 +2319,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2333,11 +2355,11 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>173</v>
+      <c r="A11" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2390,132 +2412,141 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C19" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>251</v>
+      <c r="A20" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>250</v>
+      <c r="A21" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>247</v>
-      </c>
+      <c r="A22" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>169</v>
+      <c r="A23" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
-        <v>214</v>
-      </c>
+      <c r="A26" s="23"/>
       <c r="B26" s="23"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="82">
-        <v>3</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>150</v>
+      <c r="A28" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>173</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" s="83"/>
       <c r="E28" s="83"/>
       <c r="F28" s="83"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="82">
+        <v>3</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
-        <v>215</v>
-      </c>
+      <c r="A30" s="23"/>
       <c r="B30" s="23"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="82" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="74" t="s">
         <v>212</v>
       </c>
+      <c r="B31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="82" t="s">
-        <v>182</v>
+      <c r="A32" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>173</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>183</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2530,9 +2561,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I28"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2575,10 +2608,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2609,11 +2642,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2624,7 +2657,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="19"/>
     </row>
@@ -2646,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="19"/>
     </row>
@@ -2658,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2686,78 +2719,87 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>251</v>
+      <c r="A19" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>250</v>
+      <c r="A20" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
+      <c r="A21" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>245</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>169</v>
-      </c>
+      <c r="A22" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
+      <c r="A23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>140</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2772,9 +2814,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2827,10 +2871,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2850,11 +2894,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -2914,110 +2958,118 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>251</v>
+      <c r="A19" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>250</v>
+      <c r="A20" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
+      <c r="A21" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>169</v>
+      <c r="A22" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="68"/>
+      <c r="B29" s="74"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B30" s="74" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="74"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="45" t="s">
         <v>179</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3032,9 +3084,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3081,10 +3135,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3112,11 +3166,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3161,13 +3215,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C16" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3176,13 +3230,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -3190,11 +3244,11 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>251</v>
+      <c r="A18" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -3203,11 +3257,11 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>250</v>
+      <c r="A19" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
@@ -3216,29 +3270,42 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="20"/>
+      <c r="A20" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>169</v>
-      </c>
+      <c r="A21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3253,9 +3320,11 @@
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3302,10 +3371,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3333,11 +3402,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3397,74 +3466,82 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C16" s="33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C17" s="33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>251</v>
+      <c r="A19" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>250</v>
+      <c r="A20" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="19"/>
+      <c r="A21" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>169</v>
-      </c>
+      <c r="A22" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3479,9 +3556,11 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D29"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3524,10 +3603,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,14 +3634,14 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3623,87 +3702,96 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>251</v>
+      <c r="A19" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>250</v>
+      <c r="A20" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
+      <c r="A21" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>245</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>169</v>
-      </c>
+      <c r="A22" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3722,7 +3810,7 @@
   </sheetPr>
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3735,15 +3823,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3759,15 +3847,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3795,11 +3883,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3851,10 +3939,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="87" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3871,81 +3959,81 @@
         <v>9</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="87" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="87" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="86" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>163</v>
-      </c>
       <c r="C24" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>160</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="80" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3953,52 +4041,52 @@
         <v>1</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>251</v>
+      <c r="A29" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="80" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,12 +4095,12 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4027,9 +4115,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D22"/>
+  <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4043,15 +4131,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4067,15 +4155,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4103,11 +4191,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4161,50 +4249,59 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>251</v>
+      <c r="A18" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>250</v>
+      <c r="A19" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>247</v>
-      </c>
+      <c r="A20" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>169</v>
+      <c r="A21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4217,9 +4314,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4264,10 +4363,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4295,11 +4394,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -4354,67 +4453,72 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>187</v>
-      </c>
+      <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>251</v>
+      <c r="A19" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>250</v>
+      <c r="A20" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="19"/>
+      <c r="A21" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>169</v>
-      </c>
+      <c r="A22" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4437,74 +4541,74 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -4765,9 +4869,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B21"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4782,15 +4888,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4806,15 +4912,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4843,10 +4949,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4898,40 +5004,48 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="88" t="s">
-        <v>251</v>
+      <c r="A17" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>250</v>
+      <c r="A18" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>247</v>
+      <c r="A19" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>169</v>
+      <c r="A20" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4957,7 +5071,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4965,15 +5079,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4989,15 +5103,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5027,11 +5141,11 @@
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
       <c r="C10" s="19"/>
     </row>
@@ -5059,7 +5173,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5070,7 +5184,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5081,15 +5195,15 @@
         <v>24</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
-        <v>166</v>
+      <c r="A16" s="89" t="s">
+        <v>164</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5133,7 +5247,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="30"/>
     </row>
@@ -5148,10 +5262,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="30"/>
     </row>
@@ -5166,40 +5280,40 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>163</v>
       </c>
       <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="67" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5207,81 +5321,81 @@
         <v>59</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>251</v>
+      <c r="A30" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C30" s="30"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="80" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5296,10 +5410,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5313,15 +5427,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5337,15 +5451,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5422,50 +5536,59 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C16" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>251</v>
+      <c r="A18" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>250</v>
+      <c r="A19" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>247</v>
+      <c r="A20" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5479,9 +5602,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5493,15 +5618,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5517,15 +5642,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5602,55 +5727,64 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C16" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>250</v>
+      <c r="A19" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>247</v>
-      </c>
+      <c r="A20" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5663,9 +5797,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5678,15 +5814,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5702,15 +5838,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5787,56 +5923,65 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C16" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>251</v>
+      <c r="A18" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>250</v>
+      <c r="A19" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>247</v>
+      <c r="A20" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>245</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5849,9 +5994,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5868,16 +6015,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5893,15 +6040,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5929,11 +6076,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5986,64 +6133,73 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>251</v>
+      <c r="A19" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>250</v>
+      <c r="A20" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" s="19"/>
+      <c r="A21" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>169</v>
-      </c>
+      <c r="A22" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -6056,9 +6212,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6068,20 +6226,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -6097,15 +6255,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6116,7 +6274,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6135,15 +6293,15 @@
         <v>21</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>173</v>
+      <c r="A10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6154,7 +6312,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6176,7 +6334,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6187,7 +6345,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6199,11 +6357,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
-        <v>166</v>
+      <c r="A16" s="89" t="s">
+        <v>164</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6236,7 +6394,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6249,10 +6407,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6273,188 +6431,181 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C26" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="67" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>240</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>251</v>
+      <c r="A30" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="80" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="84"/>
       <c r="B35" s="84"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>46</v>
+      <c r="A40" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>109</v>
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
+      <c r="A44" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>149</v>
+      <c r="A47" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
-        <v>143</v>
+      <c r="A48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>64</v>
+      <c r="A50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="AppMark" sheetId="342" r:id="rId7"/>
     <sheet name="Sign" sheetId="254" r:id="rId8"/>
     <sheet name="LogData" sheetId="236" r:id="rId9"/>
-    <sheet name="Operation" sheetId="30" r:id="rId10"/>
+    <sheet name="OperationData" sheetId="30" r:id="rId10"/>
     <sheet name="Face" sheetId="41" r:id="rId11"/>
     <sheet name="Price" sheetId="219" r:id="rId12"/>
     <sheet name="Budget" sheetId="98" r:id="rId13"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="248">
   <si>
     <t>Договор</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
     <t>Бюджет</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>БухСчет</t>
   </si>
   <si>
-    <t>УчетнаяОперация</t>
-  </si>
-  <si>
     <t>Страна</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
   </si>
   <si>
     <t>AccountId</t>
-  </si>
-  <si>
-    <t>OperationId</t>
   </si>
   <si>
     <t>Account</t>
@@ -614,9 +605,6 @@
     <t>роль каталога актива</t>
   </si>
   <si>
-    <t>роль дока, формы</t>
-  </si>
-  <si>
     <t>роль лица</t>
   </si>
   <si>
@@ -701,9 +689,6 @@
     <t>структура статьи 2 уровня (производной)</t>
   </si>
   <si>
-    <t>операция без документа также записывается (событие, согласование и т.д.)</t>
-  </si>
-  <si>
     <t>состав договора и одновременно проводки по приходу или расходу склада</t>
   </si>
   <si>
@@ -810,6 +795,15 @@
   </si>
   <si>
     <t>аналитика "лицо"</t>
+  </si>
+  <si>
+    <t>Данные учетных операций</t>
+  </si>
+  <si>
+    <t>OperationData</t>
+  </si>
+  <si>
+    <t>OperationDataId</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1036,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1113,7 +1107,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1152,15 +1145,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1529,7 +1519,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1537,20 +1527,20 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
-        <v>215</v>
+      <c r="A5" s="81" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1569,151 +1559,163 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="61" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="58" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="29"/>
@@ -1722,28 +1724,26 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>184</v>
-      </c>
+    <row r="18" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="19"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>158</v>
+    <row r="19" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="29"/>
@@ -1752,12 +1752,12 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>236</v>
+    <row r="20" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>125</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="29"/>
@@ -1766,12 +1766,12 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>246</v>
+    <row r="21" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="29"/>
@@ -1780,12 +1780,12 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>245</v>
+    <row r="22" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>130</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="29"/>
@@ -1794,30 +1794,124 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="23"/>
+    </row>
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1846,26 +1940,26 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1873,58 +1967,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>171</v>
+      <c r="A9" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -1942,18 +2036,18 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1961,65 +2055,65 @@
         <v>2</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>236</v>
+      <c r="A18" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>246</v>
+      <c r="A19" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>245</v>
+      <c r="A20" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -2031,10 +2125,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2068,26 +2162,26 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,63 +2189,63 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>21</v>
+      <c r="A9" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2164,18 +2258,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="19"/>
     </row>
@@ -2184,73 +2278,73 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>236</v>
+      <c r="A19" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>246</v>
+      <c r="A20" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>245</v>
+      <c r="A21" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,36 +2376,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2319,63 +2413,63 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>171</v>
+      <c r="A11" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>36</v>
+      <c r="A13" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2388,18 +2482,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2407,72 +2501,72 @@
         <v>2</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>236</v>
+      <c r="A20" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>246</v>
+      <c r="A21" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>245</v>
+      <c r="A22" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2484,69 +2578,69 @@
       <c r="B26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
-        <v>211</v>
+      <c r="A27" s="70" t="s">
+        <v>207</v>
       </c>
       <c r="B27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
+      <c r="A28" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="82">
+      <c r="A29" s="78">
         <v>3</v>
       </c>
-      <c r="B29" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
+      <c r="B29" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="74" t="s">
-        <v>212</v>
+      <c r="A31" s="70" t="s">
+        <v>208</v>
       </c>
       <c r="B31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>209</v>
+      <c r="A32" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="82" t="s">
-        <v>181</v>
+      <c r="A33" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2670,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2592,10 +2686,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2603,70 +2697,70 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="19"/>
@@ -2679,27 +2773,27 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2707,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -2719,68 +2813,68 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>236</v>
+      <c r="A19" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>246</v>
+      <c r="A20" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>245</v>
+      <c r="A21" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2789,17 +2883,17 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2925,10 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -2842,15 +2936,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2858,47 +2952,47 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -2909,18 +3003,18 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="36"/>
     </row>
@@ -2934,18 +3028,18 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2953,63 +3047,63 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>236</v>
+      <c r="A19" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>246</v>
+      <c r="A20" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>245</v>
+      <c r="A21" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3021,55 +3115,55 @@
       <c r="B25" s="23"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="64"/>
+      <c r="B29" s="70"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="74" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="44" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="77" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="74"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="77" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3098,31 +3192,31 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3130,63 +3224,63 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
-        <v>18</v>
+      <c r="A9" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>36</v>
+      <c r="A12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3199,10 +3293,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3210,18 +3304,18 @@
         <v>2</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3230,13 +3324,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -3244,11 +3338,11 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>236</v>
+      <c r="A18" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -3257,11 +3351,11 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>246</v>
+      <c r="A19" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
@@ -3270,11 +3364,11 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>245</v>
+      <c r="A20" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
@@ -3284,10 +3378,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -3297,10 +3391,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3339,26 +3433,26 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3366,55 +3460,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
-        <v>18</v>
+      <c r="A9" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -3422,10 +3516,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -3439,26 +3533,26 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="19"/>
@@ -3466,77 +3560,77 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>236</v>
+      <c r="A19" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>246</v>
+      <c r="A20" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>245</v>
+      <c r="A21" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3571,26 +3665,26 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3598,69 +3692,69 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>36</v>
+      <c r="A12" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="35"/>
     </row>
@@ -3675,19 +3769,19 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="19"/>
     </row>
@@ -3696,74 +3790,74 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>236</v>
+      <c r="A19" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>246</v>
+      <c r="A20" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>245</v>
+      <c r="A21" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3772,12 +3866,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="20"/>
     </row>
@@ -3786,13 +3880,13 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3810,7 +3904,7 @@
   </sheetPr>
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3820,26 +3914,26 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,63 +3941,63 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3916,18 +4010,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,105 +4029,105 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>133</v>
+      <c r="A21" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>23</v>
+      <c r="A22" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>75</v>
+      <c r="A23" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>161</v>
+      <c r="A24" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>158</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>158</v>
+      <c r="A25" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>155</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" s="80" t="s">
-        <v>231</v>
+      <c r="A26" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>226</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>234</v>
+      <c r="A27" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>229</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4041,52 +4135,52 @@
         <v>1</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>246</v>
+      <c r="A29" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>245</v>
+      <c r="A30" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>218</v>
+      <c r="A32" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>213</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,12 +4189,12 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4117,7 +4211,7 @@
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4128,26 +4222,26 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4155,63 +4249,63 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>21</v>
+      <c r="A9" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4224,18 +4318,18 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4243,60 +4337,60 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>236</v>
+      <c r="A18" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>246</v>
+      <c r="A19" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>245</v>
+      <c r="A20" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4331,26 +4425,26 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4358,65 +4452,65 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>67</v>
+      <c r="A8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4429,18 +4523,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4448,72 +4542,72 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>236</v>
+      <c r="A19" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>246</v>
+      <c r="A20" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>245</v>
+      <c r="A21" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4541,322 +4635,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>106</v>
+      <c r="A14" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
+    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B30" s="50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B31" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B32" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B34" s="50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B35" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B36" s="50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
+    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B37" s="50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
+    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B40" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="s">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B41" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B42" s="50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B43" s="50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B44" s="50" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4877,34 +4971,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="71" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="71" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="71"/>
+    <col min="1" max="1" width="33.140625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="67" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="67" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="67"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4912,87 +5006,87 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>36</v>
+      <c r="A12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="68" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>24</v>
+      <c r="A15" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5000,47 +5094,47 @@
         <v>2</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>236</v>
+      <c r="A17" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>246</v>
+      <c r="A18" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>245</v>
+      <c r="A19" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,31 +5165,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5103,66 +5197,66 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>36</v>
+      <c r="A12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5173,37 +5267,37 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>10</v>
+      <c r="A14" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="89" t="s">
-        <v>164</v>
+      <c r="A16" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5211,25 +5305,25 @@
         <v>2</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>23</v>
+      <c r="A18" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="C19" s="30"/>
     </row>
@@ -5238,164 +5332,164 @@
         <v>0</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>128</v>
+      <c r="A21" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>125</v>
       </c>
       <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>32</v>
+      <c r="B22" s="61" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="30"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>133</v>
+      <c r="A23" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>130</v>
       </c>
       <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>75</v>
+      <c r="A24" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="67" t="s">
-        <v>231</v>
+      <c r="A27" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>226</v>
       </c>
       <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>59</v>
+      <c r="A29" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>246</v>
+      <c r="A30" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C30" s="30"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="80" t="s">
-        <v>245</v>
+      <c r="A31" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>218</v>
+      <c r="A33" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5424,26 +5518,26 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5451,55 +5545,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>21</v>
+      <c r="A9" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>36</v>
+      <c r="A11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5512,18 +5606,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5531,64 +5625,64 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>236</v>
+      <c r="A18" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>246</v>
+      <c r="A19" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>245</v>
+      <c r="A20" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5615,26 +5709,26 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5642,55 +5736,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>21</v>
+      <c r="A9" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>36</v>
+      <c r="A11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5703,18 +5797,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5722,64 +5816,64 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>236</v>
+      <c r="A17" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>158</v>
+      <c r="A18" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>155</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>246</v>
+      <c r="A19" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>245</v>
+      <c r="A20" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5811,26 +5905,26 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5838,55 +5932,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>21</v>
+      <c r="A9" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>36</v>
+      <c r="A11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5899,18 +5993,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5918,64 +6012,64 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>236</v>
+      <c r="A18" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>246</v>
+      <c r="A19" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>245</v>
+      <c r="A20" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -6012,27 +6106,27 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6040,63 +6134,63 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
-        <v>18</v>
+      <c r="A9" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6109,18 +6203,18 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6128,73 +6222,73 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>236</v>
+      <c r="A19" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>246</v>
+      <c r="A20" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>245</v>
+      <c r="A21" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6214,9 +6308,7 @@
   </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6226,28 +6318,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6255,75 +6347,75 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>67</v>
+      <c r="A8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>171</v>
+      <c r="A10" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6334,34 +6426,34 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="89" t="s">
-        <v>164</v>
+      <c r="A16" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6369,15 +6461,15 @@
         <v>2</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6385,16 +6477,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6402,168 +6494,168 @@
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>133</v>
+      <c r="A22" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>75</v>
+      <c r="A24" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="67" t="s">
-        <v>231</v>
+      <c r="A27" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>226</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>59</v>
+      <c r="A29" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>246</v>
+      <c r="A30" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="80" t="s">
-        <v>245</v>
+      <c r="A31" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>218</v>
+      <c r="A33" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>213</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -6571,37 +6663,37 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -3904,7 +3904,7 @@
   </sheetPr>
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4965,9 +4965,7 @@
   </sheetPr>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5506,9 +5504,7 @@
   </sheetPr>
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="246">
   <si>
     <t>Договор</t>
   </si>
@@ -491,9 +491,6 @@
     <t>адресные данные лиц, складов, субскладов и т.д.</t>
   </si>
   <si>
-    <t>данные цен, скидок</t>
-  </si>
-  <si>
     <t>конкретная перевозка, например, из Астаны в Алматы</t>
   </si>
   <si>
@@ -644,12 +641,6 @@
     <t>вид адреса (для адреса)</t>
   </si>
   <si>
-    <t>роль налога в цене, или роль корректировки цен</t>
-  </si>
-  <si>
-    <t>вид инфо цен</t>
-  </si>
-  <si>
     <t>общая роль - вариант и т.д.</t>
   </si>
   <si>
@@ -804,6 +795,9 @@
   </si>
   <si>
     <t>OperationDataId</t>
+  </si>
+  <si>
+    <t>данные цен, скидок, надбавок</t>
   </si>
 </sst>
 </file>
@@ -1535,12 +1529,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1582,15 +1576,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -1606,15 +1600,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,10 +1637,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1698,10 +1692,10 @@
     </row>
     <row r="16" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="29"/>
@@ -1810,10 +1804,10 @@
     </row>
     <row r="24" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="29"/>
@@ -1824,10 +1818,10 @@
     </row>
     <row r="25" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="29"/>
@@ -1838,10 +1832,10 @@
     </row>
     <row r="26" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="29"/>
@@ -1852,10 +1846,10 @@
     </row>
     <row r="27" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="29"/>
@@ -1869,48 +1863,48 @@
         <v>56</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1972,10 +1966,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1996,10 +1990,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2061,24 +2055,24 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,34 +2080,34 @@
         <v>56</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -2125,10 +2119,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2150,9 +2144,7 @@
   </sheetPr>
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2194,10 +2186,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,10 +2218,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2284,67 +2276,63 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>194</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>195</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="86" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2376,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2418,10 +2406,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2450,10 +2438,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2506,24 +2494,24 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2531,42 +2519,42 @@
         <v>56</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2579,19 +2567,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="70" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
@@ -2602,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D29" s="79"/>
       <c r="E29" s="79"/>
@@ -2617,30 +2605,30 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B33" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="78" t="s">
         <v>177</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2657,9 +2645,7 @@
   </sheetPr>
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2702,10 +2688,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2737,10 +2723,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2773,7 +2759,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="19"/>
     </row>
@@ -2785,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2813,24 +2799,24 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2838,43 +2824,43 @@
         <v>56</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2965,10 +2951,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2989,10 +2975,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -3052,18 +3038,18 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3071,39 +3057,39 @@
         <v>56</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3116,26 +3102,26 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="70" t="s">
         <v>172</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="44" t="s">
         <v>201</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3144,26 +3130,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="70" t="s">
         <v>174</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3229,10 +3215,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3261,10 +3247,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3309,13 +3295,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3324,13 +3310,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -3342,7 +3328,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -3352,10 +3338,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
@@ -3365,10 +3351,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
@@ -3378,10 +3364,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -3391,10 +3377,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3465,10 +3451,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3497,10 +3483,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3560,36 +3546,36 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3597,40 +3583,40 @@
         <v>56</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3652,9 +3638,7 @@
   </sheetPr>
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3697,10 +3681,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3729,10 +3713,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>136</v>
@@ -3796,24 +3780,24 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3821,43 +3805,43 @@
         <v>56</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3917,12 +3901,12 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>127</v>
@@ -3941,15 +3925,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3978,10 +3962,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4037,7 +4021,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4090,44 +4074,44 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="76" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4141,46 +4125,46 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B29" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4189,12 +4173,12 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4225,15 +4209,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4249,15 +4233,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4286,10 +4270,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4343,10 +4327,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="19"/>
     </row>
@@ -4355,42 +4339,42 @@
         <v>56</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4457,10 +4441,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4489,10 +4473,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -4547,18 +4531,18 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4568,46 +4552,46 @@
         <v>56</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4980,15 +4964,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5004,15 +4988,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5041,10 +5025,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5100,39 +5084,39 @@
         <v>56</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5163,7 +5147,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5200,10 +5184,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5234,10 +5218,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="19"/>
     </row>
@@ -5292,10 +5276,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5321,7 +5305,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C19" s="30"/>
     </row>
@@ -5372,40 +5356,40 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5413,56 +5397,56 @@
         <v>56</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C30" s="30"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -5472,7 +5456,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -5482,12 +5466,12 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5488,7 @@
   </sheetPr>
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5517,15 +5501,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5541,15 +5525,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5626,24 +5610,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5651,34 +5635,34 @@
         <v>56</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5708,15 +5692,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5732,15 +5716,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5817,13 +5801,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5831,45 +5815,45 @@
         <v>56</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5904,15 +5888,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5928,15 +5912,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6013,24 +5997,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6038,34 +6022,34 @@
         <v>56</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -6105,16 +6089,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -6130,15 +6114,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6167,10 +6151,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6223,24 +6207,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -6248,43 +6232,43 @@
         <v>56</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6314,20 +6298,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -6343,15 +6327,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6362,7 +6346,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6381,15 +6365,15 @@
         <v>19</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6400,7 +6384,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6422,7 +6406,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6433,7 +6417,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6446,10 +6430,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6465,7 +6449,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6519,41 +6503,41 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C28" s="30"/>
     </row>
@@ -6562,52 +6546,52 @@
         <v>56</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="83" t="s">
         <v>238</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>241</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6646,7 +6630,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -6689,7 +6673,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="181">
   <si>
     <t>Договор</t>
   </si>
@@ -158,27 +158,12 @@
     <t>Учетная основа (AccountingBase)</t>
   </si>
   <si>
-    <t>упаковка - это минимальная единица отпуска штучных товаров поставщиком (пачка арматуры, ящик водки и т.д.)</t>
-  </si>
-  <si>
-    <t>если указана только единица веса, то это весовой товар</t>
-  </si>
-  <si>
-    <t>штука - это минимальная единица отпуска товара покупателю (пачка печенья, бутылка водки и т.д.)</t>
-  </si>
-  <si>
-    <t>для весового товара штука не имеет смысла</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - торговая калькуляция</t>
   </si>
   <si>
     <t xml:space="preserve">  - расчет прибыльности сделки</t>
   </si>
   <si>
-    <t>на основании договора можно делать доки</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - фактическое выполнение заказа производства, проекта и т.д.</t>
   </si>
   <si>
@@ -194,25 +179,10 @@
     <t xml:space="preserve">  - накопительное фактическое оказание услуг</t>
   </si>
   <si>
-    <t>ставить для прекративших деятельность</t>
-  </si>
-  <si>
     <t>страна, регион, группа стран, союз стран, международные орг-ии</t>
   </si>
   <si>
-    <t>из договора можно печатать коммерческие предложения</t>
-  </si>
-  <si>
-    <t>например, для активов, теперь уже нами не продаваемых, или срок годности</t>
-  </si>
-  <si>
-    <t>с кем заключили контракт</t>
-  </si>
-  <si>
     <t>Ед изм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - AccDataKindId = план, норма и т.д.</t>
   </si>
   <si>
     <t xml:space="preserve">  - склад</t>
@@ -260,18 +230,9 @@
     <t>ЛицоВладелец</t>
   </si>
   <si>
-    <t>для плановых показателей и т.д.</t>
-  </si>
-  <si>
     <t>ДАННЫЕ О ПРОЕКТЕ ACCBASE</t>
   </si>
   <si>
-    <t>здесь написано текущее наименование счета в данном плане счетов - например, "Товары"</t>
-  </si>
-  <si>
-    <t>здесь написан текущий код счета в данном плане счетов - например, "1330"</t>
-  </si>
-  <si>
     <t>Представление</t>
   </si>
   <si>
@@ -374,9 +335,6 @@
     <t>вариант представления\бухсчет, аналитика, актив, лицо, договор, бюджет</t>
   </si>
   <si>
-    <t>дата договора</t>
-  </si>
-  <si>
     <t>здесь также - подробности выполнения договора (планового, фактического, прогнозного и т.д.)</t>
   </si>
   <si>
@@ -467,57 +425,24 @@
     <t>Данные инфо</t>
   </si>
   <si>
-    <t>трудовые договора - это субдоговора с каждым сотром (лицом) под рамочным договором = штатным расписанием</t>
-  </si>
-  <si>
-    <t>может быть норматив, план и т.д.</t>
-  </si>
-  <si>
     <t>фактические налоговые данные от другого налогового агента</t>
   </si>
   <si>
     <t>перевозки, маршруты, события, интеграции, выгрузки, обмены данными</t>
   </si>
   <si>
-    <t>в 1 строке для бухсчета здесь - нормативный код счета из данного плана счетов</t>
-  </si>
-  <si>
-    <t>в 1 строке для бухсчета здесь - нормативное наименование счета из данного плана счетов</t>
-  </si>
-  <si>
-    <t>объектная часть адреса</t>
-  </si>
-  <si>
     <t>адресные данные лиц, складов, субскладов и т.д.</t>
   </si>
   <si>
     <t>конкретная перевозка, например, из Астаны в Алматы</t>
   </si>
   <si>
-    <t>корневая статья</t>
-  </si>
-  <si>
     <t>заголовок и табличные части (строки) документа (вложенные, подчиненные и т.д.)</t>
   </si>
   <si>
-    <t>здесь может быть номер договора</t>
-  </si>
-  <si>
-    <t>здесь может быть номер договора у контрагента</t>
-  </si>
-  <si>
     <t>без указания направления - мы, нам, поставщик, покупатель, от кого, кому и т.д.</t>
   </si>
   <si>
-    <t>номер документа (для шапки)</t>
-  </si>
-  <si>
-    <t>расшифровка документа (для шапки)</t>
-  </si>
-  <si>
-    <t>дата документа (для шапки)</t>
-  </si>
-  <si>
     <t>Информация</t>
   </si>
   <si>
@@ -569,117 +494,6 @@
     <t>Данные</t>
   </si>
   <si>
-    <t>Роль статьи бюджета</t>
-  </si>
-  <si>
-    <t>Инфо</t>
-  </si>
-  <si>
-    <t>структура налога верхнего уровня ---</t>
-  </si>
-  <si>
-    <t>самое общее описание группы налогов</t>
-  </si>
-  <si>
-    <t>структура налога уровня 2 ---</t>
-  </si>
-  <si>
-    <t>самое общее описание налога</t>
-  </si>
-  <si>
-    <t>стр-ра налогов - элемент группы налогов</t>
-  </si>
-  <si>
-    <t>объект, направление и т.д.</t>
-  </si>
-  <si>
-    <t>работа, субподряд, своими силами и т.д.</t>
-  </si>
-  <si>
-    <t>структура актива</t>
-  </si>
-  <si>
-    <t>роль каталога актива</t>
-  </si>
-  <si>
-    <t>роль лица</t>
-  </si>
-  <si>
-    <t>вид лица</t>
-  </si>
-  <si>
-    <t>структура влияния дока</t>
-  </si>
-  <si>
-    <t>роль статьи бюджета</t>
-  </si>
-  <si>
-    <t>бюджет детализация</t>
-  </si>
-  <si>
-    <t>роль бухсчета</t>
-  </si>
-  <si>
-    <t>план счетов детализация</t>
-  </si>
-  <si>
-    <t>роль договора</t>
-  </si>
-  <si>
-    <t>вид договора</t>
-  </si>
-  <si>
-    <t>роль страны</t>
-  </si>
-  <si>
-    <t>роль ед изм</t>
-  </si>
-  <si>
-    <t>общий вид инфо там есть по ед изм</t>
-  </si>
-  <si>
-    <t>вид адреса (для адреса)</t>
-  </si>
-  <si>
-    <t>общая роль - вариант и т.д.</t>
-  </si>
-  <si>
-    <t>общий вид инфо - вариант и т.д.</t>
-  </si>
-  <si>
-    <t>инфо знака, вариант и т.д.</t>
-  </si>
-  <si>
-    <t>роль знака</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>роль базы налога</t>
-  </si>
-  <si>
-    <t>роль детализации налога</t>
-  </si>
-  <si>
-    <t>все детализации бюджета</t>
-  </si>
-  <si>
-    <t>стр-ра налогов - корневая группа налогов</t>
-  </si>
-  <si>
-    <t>инфо - бюджет детализация</t>
-  </si>
-  <si>
-    <t>наименование (код)</t>
-  </si>
-  <si>
-    <t>структура статьи 1 уровня (корневой)</t>
-  </si>
-  <si>
-    <t>структура статьи 2 уровня (производной)</t>
-  </si>
-  <si>
     <t>состав договора и одновременно проводки по приходу или расходу склада</t>
   </si>
   <si>
@@ -695,9 +509,6 @@
     <t>Attachment</t>
   </si>
   <si>
-    <t>роль структуры документа, роль дока (формы и т.д.)</t>
-  </si>
-  <si>
     <t>Данные журнала</t>
   </si>
   <si>
@@ -780,12 +591,6 @@
   </si>
   <si>
     <t>проводки, аналитика, субаналитика</t>
-  </si>
-  <si>
-    <t>склад, банк счет, касса</t>
-  </si>
-  <si>
-    <t>аналитика "лицо"</t>
   </si>
   <si>
     <t>Данные учетных операций</t>
@@ -804,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -842,28 +647,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Franklin Gothic Medium"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -882,15 +667,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,12 +678,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,13 +796,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1067,11 +837,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1094,11 +863,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,8 +879,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,7 +924,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1167,39 +935,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_FaceRoleKind_1" xfId="2"/>
-    <cellStyle name="Обычный_Лист1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1513,7 +1266,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1525,16 +1278,16 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
-        <v>207</v>
+      <c r="A5" s="70" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1312,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="57" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -1567,28 +1320,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>106</v>
+      <c r="A1" s="59" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>242</v>
+      <c r="A3" s="51" t="s">
+        <v>177</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1596,23 +1349,23 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1620,31 +1373,31 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
-        <v>65</v>
+      <c r="A8" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -1652,15 +1405,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1668,243 +1421,243 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>223</v>
-      </c>
       <c r="C26" s="19"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-    </row>
-    <row r="28" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="29"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="28"/>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>237</v>
+      <c r="A30" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>210</v>
+      <c r="A32" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>163</v>
+      <c r="A33" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1922,9 +1675,7 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1966,10 +1717,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1982,18 +1733,18 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>167</v>
+      <c r="A9" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2011,9 +1762,7 @@
       <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -2037,77 +1786,73 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>180</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>181</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>228</v>
+      <c r="A18" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>238</v>
+      <c r="A19" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>237</v>
+      <c r="A20" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -2118,11 +1863,11 @@
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>163</v>
+      <c r="A22" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2132,7 +1877,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2144,7 +1889,7 @@
   </sheetPr>
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2157,15 +1902,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2181,15 +1926,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2202,26 +1947,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="58" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2257,82 +2002,82 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>228</v>
+      <c r="A19" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>238</v>
+      <c r="A20" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>237</v>
+      <c r="A21" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>163</v>
+      <c r="A23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2341,7 +2086,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2350,10 +2095,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2364,12 +2109,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2377,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2385,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2401,15 +2146,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2422,10 +2167,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2437,11 +2182,11 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>167</v>
+      <c r="A11" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2453,10 +2198,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2477,164 +2222,94 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>228</v>
+        <v>129</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>238</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>237</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="78">
-        <v>3</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>177</v>
-      </c>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2643,7 +2318,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -2688,10 +2363,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2704,10 +2379,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2717,16 +2392,13 @@
       <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2736,9 +2408,7 @@
       <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="C11" s="19"/>
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2748,7 +2418,7 @@
       <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2758,9 +2428,7 @@
       <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>146</v>
-      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2770,23 +2438,21 @@
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>147</v>
-      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="19"/>
@@ -2799,93 +2465,74 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>187</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>188</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>228</v>
+      <c r="A19" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>238</v>
+      <c r="A20" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>237</v>
+      <c r="A21" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>163</v>
+      <c r="A23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2894,11 +2541,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2951,18 +2596,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2974,11 +2619,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -3002,7 +2647,7 @@
       <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -3029,128 +2674,72 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>228</v>
+      <c r="A19" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>238</v>
+      <c r="A20" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>237</v>
+      <c r="A21" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>163</v>
+      <c r="A23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="70"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>175</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3166,9 +2755,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3178,7 +2765,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3215,10 +2802,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3231,14 +2818,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3246,11 +2833,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3262,10 +2849,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3286,23 +2873,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>189</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -3310,25 +2895,23 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>228</v>
+      <c r="A18" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -3337,11 +2920,11 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>238</v>
+      <c r="A19" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
@@ -3350,11 +2933,11 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>237</v>
+      <c r="A20" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
@@ -3364,10 +2947,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -3376,11 +2959,11 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>163</v>
+      <c r="A22" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3402,9 +2985,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3451,10 +3032,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3467,14 +3048,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3482,11 +3063,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3518,9 +3099,7 @@
       <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -3529,94 +3108,88 @@
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>68</v>
-      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>185</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C16" s="32"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>186</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C17" s="32"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>228</v>
+      <c r="A19" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>238</v>
+      <c r="A20" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>237</v>
+      <c r="A21" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>163</v>
+      <c r="A23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3626,7 +3199,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3636,7 +3209,7 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D30"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -3681,10 +3254,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3697,30 +3270,28 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>136</v>
-      </c>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -3731,16 +3302,14 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="35"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
@@ -3770,113 +3339,84 @@
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>179</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>178</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>228</v>
+      <c r="A19" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>238</v>
+      <c r="A20" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>237</v>
+      <c r="A21" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>163</v>
+      <c r="A23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3901,15 +3441,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3925,15 +3465,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3946,10 +3486,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3961,11 +3501,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4001,170 +3541,164 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="83" t="s">
-        <v>244</v>
+      <c r="B17" s="72" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>125</v>
+      <c r="B19" s="44" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="72" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>190</v>
-      </c>
+      <c r="B24" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>191</v>
-      </c>
+      <c r="A25" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="76" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>223</v>
+      <c r="A26" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>227</v>
-      </c>
+      <c r="A27" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B29" s="83" t="s">
-        <v>238</v>
+      <c r="A29" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="76" t="s">
-        <v>237</v>
+      <c r="A30" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>210</v>
+      <c r="A32" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>148</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>163</v>
+      <c r="A33" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4172,13 +3706,13 @@
       <c r="B34" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>215</v>
+      <c r="A36" s="29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4209,15 +3743,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4233,15 +3767,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4254,26 +3788,26 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4309,72 +3843,72 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>228</v>
+      <c r="A18" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>238</v>
+      <c r="A19" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>237</v>
+      <c r="A20" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>163</v>
+      <c r="A22" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4394,9 +3928,7 @@
   </sheetPr>
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4412,15 +3944,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -4436,15 +3968,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4456,27 +3988,27 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>64</v>
+      <c r="A8" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -4522,76 +4054,76 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>228</v>
+      <c r="A19" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>238</v>
+      <c r="A20" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>237</v>
+      <c r="A21" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>163</v>
+      <c r="A23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4619,322 +4151,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="19" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>103</v>
+      <c r="A14" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B31" s="49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B35" s="49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
+    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B39" s="49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B40" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B41" s="49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B43" s="49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
+    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B44" s="49" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4953,10 +4485,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="67" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="67" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="67"/>
+    <col min="1" max="1" width="33.140625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="65" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="65"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -4964,15 +4496,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4988,15 +4520,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5008,27 +4540,27 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>64</v>
+      <c r="A8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>167</v>
+      <c r="A10" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5040,18 +4572,18 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5064,59 +4596,59 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>228</v>
+      <c r="A17" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>238</v>
+      <c r="A18" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>237</v>
+      <c r="A19" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>163</v>
+      <c r="A21" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5146,8 +4678,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>219</v>
+      <c r="A1" s="29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5155,15 +4687,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5175,36 +4707,36 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>133</v>
+      <c r="B5" s="23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5217,261 +4749,255 @@
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
-        <v>160</v>
+      <c r="A16" s="74" t="s">
+        <v>135</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="30"/>
+      <c r="B19" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="30"/>
+      <c r="A21" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="30"/>
+      <c r="A23" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="30"/>
+      <c r="A24" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="30"/>
+      <c r="A27" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>227</v>
+        <v>163</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="30"/>
+      <c r="A29" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="30"/>
+      <c r="A30" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="30"/>
+      <c r="A31" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>210</v>
+      <c r="A33" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>163</v>
+      <c r="A34" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>217</v>
+      <c r="A36" s="29" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
-        <v>142</v>
+      <c r="A37" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5501,15 +5027,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5525,15 +5051,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5546,17 +5072,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5569,10 +5095,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5593,10 +5119,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5610,59 +5136,55 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>193</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>194</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>228</v>
+      <c r="A18" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>238</v>
+      <c r="A19" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>237</v>
+      <c r="A20" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5678,9 +5200,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
-    </sheetView>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5692,15 +5212,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5716,15 +5236,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5737,17 +5257,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5760,10 +5280,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5784,10 +5304,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5801,59 +5321,55 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>193</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>228</v>
+      <c r="A17" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>194</v>
-      </c>
+      <c r="A18" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>238</v>
+      <c r="A19" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>237</v>
+      <c r="A20" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5873,9 +5389,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5888,15 +5402,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5912,15 +5426,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5933,17 +5447,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5956,10 +5470,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5980,10 +5494,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5997,59 +5511,55 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>193</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>194</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>228</v>
+      <c r="A18" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>238</v>
+      <c r="A19" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>237</v>
+      <c r="A20" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -6070,9 +5580,7 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6089,16 +5597,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -6114,15 +5622,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6135,14 +5643,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -6150,11 +5658,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6198,77 +5706,73 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>196</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>195</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>228</v>
+      <c r="A19" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>238</v>
+      <c r="A20" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>237</v>
+      <c r="A21" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>163</v>
+      <c r="A23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6286,7 +5790,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -6298,20 +5802,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -6327,15 +5831,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6345,35 +5849,31 @@
       <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>240</v>
-      </c>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>64</v>
+      <c r="A8" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>241</v>
-      </c>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>167</v>
+      <c r="A10" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6383,9 +5883,7 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
@@ -6394,9 +5892,7 @@
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>66</v>
-      </c>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
@@ -6405,9 +5901,7 @@
       <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -6416,9 +5910,7 @@
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>150</v>
-      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -6429,11 +5921,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
-        <v>160</v>
+      <c r="A16" s="74" t="s">
+        <v>135</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6449,7 +5941,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6466,7 +5958,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6478,11 +5970,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>130</v>
+      <c r="A22" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6494,148 +5986,144 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>72</v>
+      <c r="A24" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>211</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>182</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>223</v>
+      <c r="A27" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>160</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>56</v>
+      <c r="A29" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>238</v>
+      <c r="A30" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>175</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>237</v>
+      <c r="A31" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>210</v>
+      <c r="A33" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>148</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>163</v>
+      <c r="A34" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
-        <v>50</v>
+      <c r="A42" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
-        <v>138</v>
+      <c r="A45" s="29" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -6643,37 +6131,32 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>206</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,37 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
     <sheet name="Role" sheetId="273" r:id="rId2"/>
     <sheet name="Info" sheetId="339" r:id="rId3"/>
-    <sheet name="InfoData" sheetId="463" r:id="rId4"/>
-    <sheet name="AppData" sheetId="399" r:id="rId5"/>
-    <sheet name="AppMeter" sheetId="481" r:id="rId6"/>
-    <sheet name="AppMark" sheetId="342" r:id="rId7"/>
-    <sheet name="Sign" sheetId="254" r:id="rId8"/>
-    <sheet name="LogData" sheetId="236" r:id="rId9"/>
-    <sheet name="OperationData" sheetId="30" r:id="rId10"/>
-    <sheet name="Face" sheetId="41" r:id="rId11"/>
-    <sheet name="Price" sheetId="219" r:id="rId12"/>
-    <sheet name="Budget" sheetId="98" r:id="rId13"/>
-    <sheet name="Contract" sheetId="89" r:id="rId14"/>
-    <sheet name="Tax" sheetId="93" r:id="rId15"/>
-    <sheet name="Country" sheetId="172" r:id="rId16"/>
-    <sheet name="Account" sheetId="13" r:id="rId17"/>
-    <sheet name="Asset" sheetId="48" r:id="rId18"/>
-    <sheet name="UnitData" sheetId="91" r:id="rId19"/>
-    <sheet name="View" sheetId="462" r:id="rId20"/>
-    <sheet name="_Enum" sheetId="480" r:id="rId21"/>
+    <sheet name="AppData" sheetId="399" r:id="rId4"/>
+    <sheet name="AppMeter" sheetId="481" r:id="rId5"/>
+    <sheet name="AppMark" sheetId="342" r:id="rId6"/>
+    <sheet name="Sign" sheetId="254" r:id="rId7"/>
+    <sheet name="LogData" sheetId="236" r:id="rId8"/>
+    <sheet name="OperationData" sheetId="30" r:id="rId9"/>
+    <sheet name="Face" sheetId="41" r:id="rId10"/>
+    <sheet name="Price" sheetId="219" r:id="rId11"/>
+    <sheet name="Budget" sheetId="98" r:id="rId12"/>
+    <sheet name="Contract" sheetId="89" r:id="rId13"/>
+    <sheet name="Tax" sheetId="93" r:id="rId14"/>
+    <sheet name="Country" sheetId="172" r:id="rId15"/>
+    <sheet name="Account" sheetId="13" r:id="rId16"/>
+    <sheet name="Asset" sheetId="48" r:id="rId17"/>
+    <sheet name="UnitData" sheetId="91" r:id="rId18"/>
+    <sheet name="View" sheetId="462" r:id="rId19"/>
+    <sheet name="_Enum" sheetId="480" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="176">
   <si>
     <t>Договор</t>
   </si>
@@ -416,15 +415,6 @@
     <t>Цена</t>
   </si>
   <si>
-    <t>InfoData</t>
-  </si>
-  <si>
-    <t>InfoDataId</t>
-  </si>
-  <si>
-    <t>Данные инфо</t>
-  </si>
-  <si>
     <t>фактические налоговые данные от другого налогового агента</t>
   </si>
   <si>
@@ -530,9 +520,6 @@
     <t>дополнительные к основным роли, инфо и т.д.</t>
   </si>
   <si>
-    <t>информационные данные широкого профиля (кроме проводок и документов, кроме курсов валют)</t>
-  </si>
-  <si>
     <t>данные для штатного расписания с типом "план"</t>
   </si>
   <si>
@@ -552,9 +539,6 @@
   </si>
   <si>
     <t>ValueMeter</t>
-  </si>
-  <si>
-    <t>строка</t>
   </si>
   <si>
     <t>UnitDataId</t>
@@ -800,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,9 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,9 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,7 +920,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1278,16 +1255,16 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70" t="s">
-        <v>145</v>
+      <c r="A5" s="68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>146</v>
+      <c r="A7" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1302,373 +1279,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист32">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.5703125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
@@ -1708,23 +1318,23 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1732,147 +1342,147 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>142</v>
+      <c r="A9" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="A16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="B21" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>138</v>
+      <c r="A22" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1882,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1922,23 +1532,23 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1946,138 +1556,138 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="A17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="A18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>171</v>
+      <c r="B22" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>138</v>
+      <c r="A23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2090,14 +1700,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -2108,8 +1718,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>126</v>
+      <c r="A1" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2142,23 +1752,23 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>169</v>
+      <c r="A7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2166,136 +1776,136 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>142</v>
+      <c r="A11" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="A18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="19"/>
+      <c r="A19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>171</v>
+      <c r="B23" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>138</v>
+      <c r="A24" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2303,8 +1913,8 @@
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2313,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2354,175 +1964,175 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>138</v>
+      <c r="A23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2536,7 +2146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2552,7 +2162,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
+      <c r="A1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2579,7 +2189,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2587,7 +2197,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2595,146 +2205,146 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>138</v>
+      <c r="A23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2748,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2764,7 +2374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2793,7 +2403,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2801,15 +2411,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2817,153 +2427,153 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="B21" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>138</v>
+      <c r="A22" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2978,7 +2588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
@@ -2996,7 +2606,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
+      <c r="A1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3023,7 +2633,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3031,15 +2641,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3047,149 +2657,149 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="B18" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3204,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
@@ -3221,7 +2831,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3245,23 +2855,23 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3269,144 +2879,144 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="19"/>
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="A17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="A18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="19"/>
+      <c r="B22" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>138</v>
+      <c r="A23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3421,12 +3031,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C37"/>
+  <dimension ref="A2:C36"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -3441,12 +3051,12 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>113</v>
@@ -3461,23 +3071,23 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>165</v>
+      <c r="B5" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3485,42 +3095,42 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3541,184 +3151,391 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="72" t="s">
-        <v>179</v>
+      <c r="B17" s="69" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="42" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="69" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="66" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="69" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>59</v>
-      </c>
+      <c r="A23" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="19"/>
+      <c r="A24" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="19"/>
+      <c r="A25" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="19"/>
+      <c r="A26" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="29"/>
+      <c r="A27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="19"/>
+      <c r="A28" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="19"/>
+      <c r="A29" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="19"/>
+      <c r="A31" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="19"/>
+      <c r="A32" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>153</v>
+      <c r="A36" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3743,15 +3560,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -3763,23 +3580,23 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>132</v>
+      <c r="B5" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3787,42 +3604,42 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3843,72 +3660,72 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="19"/>
+      <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>171</v>
+      <c r="B21" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>138</v>
+      <c r="A22" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3922,221 +3739,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:G24"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
@@ -4150,322 +3752,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="47" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="47" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="47" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="47" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="47" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="47" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="47" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="47" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="47" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="47" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="47" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="47" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="47" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="47" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4485,10 +4087,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="65" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="65"/>
+    <col min="1" max="1" width="33.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="63" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="63" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="63"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -4496,15 +4098,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4516,23 +4118,23 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>129</v>
+      <c r="B5" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -4540,115 +4142,115 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>142</v>
+      <c r="A10" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="65" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>171</v>
+      <c r="B20" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>138</v>
+      <c r="A21" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4666,355 +4268,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="29"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="29"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5027,15 +4283,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5047,23 +4303,23 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>142</v>
+      <c r="B5" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -5071,120 +4327,120 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="A16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>171</v>
+      <c r="B21" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5193,7 +4449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5212,15 +4468,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5232,23 +4488,23 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>160</v>
+      <c r="B5" s="15" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -5256,120 +4512,120 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="A16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>171</v>
+      <c r="B21" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5382,7 +4638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5402,15 +4658,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5422,23 +4678,23 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>138</v>
+      <c r="B5" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -5446,122 +4702,122 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="A16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="19"/>
+      <c r="B21" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -5573,7 +4829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5590,23 +4846,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="19"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5622,19 +4878,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -5642,137 +4898,137 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="A17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="A18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="19"/>
+      <c r="B22" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>138</v>
+      <c r="A23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5785,12 +5041,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -5801,21 +5057,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>125</v>
+      <c r="A1" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>176</v>
+      <c r="A2" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5827,340 +5083,715 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>151</v>
+      <c r="B5" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>169</v>
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>142</v>
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="19"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>144</v>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист32">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Country" sheetId="172" r:id="rId15"/>
     <sheet name="Account" sheetId="13" r:id="rId16"/>
     <sheet name="Asset" sheetId="48" r:id="rId17"/>
-    <sheet name="UnitData" sheetId="91" r:id="rId18"/>
+    <sheet name="Unit" sheetId="91" r:id="rId18"/>
     <sheet name="View" sheetId="462" r:id="rId19"/>
     <sheet name="_Enum" sheetId="480" r:id="rId20"/>
   </sheets>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="170">
   <si>
     <t>Договор</t>
-  </si>
-  <si>
-    <t>ЕдиницаИзмерения</t>
   </si>
   <si>
     <t>Счет</t>
@@ -508,12 +505,6 @@
     <t>LogDataId</t>
   </si>
   <si>
-    <t>пересчет разных ЕИ друг в друга</t>
-  </si>
-  <si>
-    <t>курсы валют</t>
-  </si>
-  <si>
     <t>регистрация отношений, и т.д.</t>
   </si>
   <si>
@@ -541,16 +532,7 @@
     <t>ValueMeter</t>
   </si>
   <si>
-    <t>UnitDataId</t>
-  </si>
-  <si>
     <t>Родитель</t>
-  </si>
-  <si>
-    <t>UnitData</t>
-  </si>
-  <si>
-    <t>Данные ед изм</t>
   </si>
   <si>
     <t>ParentId</t>
@@ -1243,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1251,7 +1233,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1259,12 +1241,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1267,9 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1295,82 +1279,82 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1381,88 +1365,88 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1474,10 +1458,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1499,7 +1483,9 @@
   </sheetPr>
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1509,185 +1495,185 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1707,9 +1693,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1719,193 +1703,193 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1914,9 @@
   </sheetPr>
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1941,10 +1927,10 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1952,118 +1938,118 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2075,64 +2061,64 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,7 +2139,9 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2166,74 +2154,74 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -2244,107 +2232,107 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2365,7 +2353,9 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2375,127 +2365,127 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
@@ -2505,10 +2495,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -2518,10 +2508,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -2531,10 +2521,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -2544,10 +2534,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
@@ -2557,10 +2547,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -2570,10 +2560,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2595,7 +2585,9 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2610,82 +2602,82 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -2693,10 +2685,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -2704,28 +2696,28 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="18"/>
@@ -2733,10 +2725,10 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="18"/>
@@ -2744,10 +2736,10 @@
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="18"/>
@@ -2755,51 +2747,51 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2821,7 +2813,9 @@
   </sheetPr>
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2832,191 +2826,191 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3026,7 +3020,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3036,7 +3030,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C36"/>
+  <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -3048,274 +3042,189 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>174</v>
-      </c>
+      <c r="A17" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>111</v>
-      </c>
+      <c r="A19" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>27</v>
-      </c>
+      <c r="A20" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>116</v>
-      </c>
+      <c r="A21" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="18"/>
+      <c r="A23" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="27"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3344,189 +3253,189 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3546,7 +3455,7 @@
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3557,175 +3466,175 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3753,322 +3662,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +3992,9 @@
   </sheetPr>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4095,162 +4006,162 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4270,7 +4181,9 @@
   </sheetPr>
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4280,167 +4193,167 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4456,7 +4369,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4465,167 +4380,167 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4645,7 +4560,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4655,167 +4572,167 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -4836,7 +4753,9 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4850,185 +4769,185 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5048,7 +4967,9 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5058,163 +4979,163 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5222,112 +5143,112 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="41" t="s">
         <v>144</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>145</v>
       </c>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -5336,42 +5257,42 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -5379,62 +5300,62 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5450,7 +5371,9 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5463,120 +5386,120 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="26"/>
@@ -5587,10 +5510,10 @@
     </row>
     <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="26"/>
@@ -5601,10 +5524,10 @@
     </row>
     <row r="17" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="26"/>
@@ -5615,10 +5538,10 @@
     </row>
     <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="26"/>
@@ -5632,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="26"/>
@@ -5643,10 +5566,10 @@
     </row>
     <row r="20" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="26"/>
@@ -5657,10 +5580,10 @@
     </row>
     <row r="21" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="26"/>
@@ -5671,10 +5594,10 @@
     </row>
     <row r="22" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="26"/>
@@ -5685,10 +5608,10 @@
     </row>
     <row r="23" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="26"/>
@@ -5699,10 +5622,10 @@
     </row>
     <row r="24" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="26"/>
@@ -5713,10 +5636,10 @@
     </row>
     <row r="25" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="26"/>
@@ -5727,10 +5650,10 @@
     </row>
     <row r="26" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="26"/>
@@ -5741,51 +5664,51 @@
     </row>
     <row r="27" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>144</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -1267,9 +1267,7 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3455,7 +3453,7 @@
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="166">
   <si>
     <t>Договор</t>
   </si>
@@ -544,21 +544,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Основание</t>
-  </si>
-  <si>
-    <t>Назначение</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Basis</t>
-  </si>
-  <si>
-    <t>проводки, аналитика, субаналитика</t>
-  </si>
-  <si>
     <t>Данные учетных операций</t>
   </si>
   <si>
@@ -569,6 +554,9 @@
   </si>
   <si>
     <t>данные цен, скидок, надбавок</t>
+  </si>
+  <si>
+    <t>проводки</t>
   </si>
 </sst>
 </file>
@@ -766,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -894,9 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1240,7 +1225,7 @@
       <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1265,9 +1250,9 @@
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1332,10 +1317,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1413,58 +1398,40 @@
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>164</v>
+      <c r="A19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="A20" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1479,11 +1446,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C24"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1556,10 +1521,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1632,51 +1597,33 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="A20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="A21" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -1689,7 +1636,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -1774,10 +1721,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1848,55 +1795,37 @@
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="A21" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="18"/>
+      <c r="A22" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>160</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1910,11 +1839,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1988,10 +1915,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2076,52 +2003,34 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>164</v>
+      <c r="A20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="A21" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2135,11 +2044,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2215,10 +2122,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="18"/>
@@ -2294,48 +2201,32 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>164</v>
+      <c r="A20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>163</v>
+      <c r="A21" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2349,11 +2240,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2431,10 +2320,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2505,10 +2394,10 @@
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="18"/>
@@ -2518,55 +2407,29 @@
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="18"/>
+      <c r="A19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2581,11 +2444,9 @@
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2663,10 +2524,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2752,49 +2613,33 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>164</v>
-      </c>
+      <c r="A20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>163</v>
+      <c r="A21" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2809,11 +2654,9 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D24"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2887,10 +2730,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="18"/>
@@ -2968,52 +2811,34 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>164</v>
+      <c r="A20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="A21" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3028,7 +2853,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C24"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -3103,10 +2928,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3177,52 +3002,25 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>164</v>
+      <c r="A19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="A20" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3236,7 +3034,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -3314,10 +3112,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
       <c r="F10" s="18"/>
@@ -3390,55 +3188,35 @@
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3451,9 +3229,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3527,10 +3305,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3593,51 +3371,33 @@
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="18"/>
+      <c r="A19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="18"/>
+      <c r="A20" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3988,11 +3748,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4123,48 +3881,32 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>164</v>
+      <c r="A18" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>163</v>
+      <c r="A19" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4177,11 +3919,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4320,37 +4060,19 @@
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A19" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4365,11 +4087,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4498,10 +4218,10 @@
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C17" s="18"/>
@@ -4516,34 +4236,16 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="18"/>
+      <c r="A19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4556,11 +4258,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4699,44 +4399,26 @@
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>164</v>
+      <c r="A19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4749,11 +4431,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4831,10 +4511,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4905,52 +4585,34 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="A20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="A21" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4963,11 +4625,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5044,10 +4704,10 @@
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5096,7 +4756,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>131</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -5116,7 +4776,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5206,153 +4866,135 @@
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>164</v>
+      <c r="A29" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>163</v>
+      <c r="A30" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="18"/>
+      <c r="A31" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>140</v>
+      <c r="A52" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
-        <v>148</v>
+      <c r="A54" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27" t="s">
-        <v>119</v>
+      <c r="A55" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>169</v>
+      <c r="A56" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5367,11 +5009,9 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5392,15 +5032,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -5416,7 +5056,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5452,10 +5092,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5507,7 +5147,7 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>131</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -5669,43 +5309,27 @@
       </c>
       <c r="C27" s="26"/>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B29" s="41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B30" s="22" t="s">
         <v>134</v>
       </c>
     </row>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="8" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -1436,7 +1436,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1830,7 +1830,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2035,7 +2035,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2434,7 +2434,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2644,7 +2644,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3036,7 +3036,7 @@
   </sheetPr>
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3231,7 +3231,7 @@
   </sheetPr>
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4078,7 +4078,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4249,7 +4249,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4422,7 +4422,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="8" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="168">
   <si>
     <t>Договор</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Налог</t>
-  </si>
-  <si>
-    <t>Код</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -235,9 +232,6 @@
     <t>View</t>
   </si>
   <si>
-    <t>ViewId</t>
-  </si>
-  <si>
     <t>вариант представления\бухсчет</t>
   </si>
   <si>
@@ -557,6 +551,18 @@
   </si>
   <si>
     <t>проводки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---структура бюджета, ФХД, ДДС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ---структура калькуляций</t>
+  </si>
+  <si>
+    <t>Код репликации</t>
+  </si>
+  <si>
+    <t>ReplicationId</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -893,6 +899,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1210,7 +1218,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1218,7 +1226,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1226,12 +1234,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1260,9 @@
   </sheetPr>
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1262,82 +1272,82 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1348,26 +1358,26 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1375,43 +1385,43 @@
         <v>1</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1423,10 +1433,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1448,7 +1458,9 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1458,114 +1470,114 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>115</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -1574,51 +1586,51 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1636,9 +1648,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1648,124 +1662,124 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>110</v>
+      <c r="A6" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1773,50 +1787,50 @@
         <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,6 +1840,16 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1841,7 +1865,9 @@
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1852,10 +1878,10 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1863,110 +1889,110 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>26</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1974,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1986,46 +2012,46 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2046,7 +2072,9 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2059,10 +2087,10 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -2070,63 +2098,63 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -2137,43 +2165,43 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2181,47 +2209,47 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2242,7 +2270,9 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2252,111 +2282,111 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2364,15 +2394,15 @@
         <v>1</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
@@ -2382,10 +2412,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -2395,10 +2425,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -2408,10 +2438,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2421,10 +2451,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2444,9 +2474,9 @@
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2461,82 +2491,82 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -2544,10 +2574,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -2555,91 +2585,102 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>128</v>
+      <c r="A16" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>125</v>
+      <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>130</v>
-      </c>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>113</v>
+      <c r="A19" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="A20" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>134</v>
-      </c>
+      <c r="A21" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2656,7 +2697,9 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2667,119 +2710,119 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>20</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -2788,52 +2831,52 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2855,7 +2898,9 @@
   </sheetPr>
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2865,114 +2910,114 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>113</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2980,42 +3025,42 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3036,7 +3081,7 @@
   </sheetPr>
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3049,116 +3094,116 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3166,52 +3211,52 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3242,114 +3287,114 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>128</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3357,42 +3402,42 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,322 +3465,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3750,7 +3795,9 @@
   </sheetPr>
   <dimension ref="A2:B20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3762,114 +3809,114 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>125</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3877,31 +3924,31 @@
         <v>1</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3931,106 +3978,106 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>138</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4038,42 +4085,42 @@
         <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4089,7 +4136,9 @@
   </sheetPr>
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4098,106 +4147,106 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>153</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4205,42 +4254,42 @@
         <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4260,7 +4309,9 @@
   </sheetPr>
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4270,106 +4321,106 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>134</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4377,42 +4428,42 @@
         <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -4433,7 +4484,9 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4447,115 +4500,115 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>130</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,51 +4616,51 @@
         <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4625,9 +4678,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4637,130 +4692,130 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>147</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4768,234 +4823,242 @@
         <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>163</v>
+      <c r="A18" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="B19" s="14" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>110</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="B22" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
-        <v>148</v>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>164</v>
+      <c r="A54" s="27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>150</v>
+      <c r="A56" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>149</v>
+      <c r="A57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5009,9 +5072,11 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5024,120 +5089,120 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>163</v>
+      <c r="A5" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="26"/>
@@ -5148,10 +5213,10 @@
     </row>
     <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="26"/>
@@ -5165,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="26"/>
@@ -5175,11 +5240,11 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>20</v>
+      <c r="A18" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>145</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="26"/>
@@ -5189,11 +5254,11 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>26</v>
+      <c r="A19" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>161</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="26"/>
@@ -5203,11 +5268,11 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>110</v>
+      <c r="A20" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="26"/>
@@ -5217,11 +5282,11 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>28</v>
+      <c r="A21" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="26"/>
@@ -5231,11 +5296,11 @@
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>115</v>
+      <c r="A22" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>108</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="26"/>
@@ -5245,11 +5310,11 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>128</v>
+      <c r="A23" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="26"/>
@@ -5259,11 +5324,11 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>125</v>
+      <c r="A24" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>113</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="26"/>
@@ -5273,11 +5338,11 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>153</v>
+      <c r="A25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="26"/>
@@ -5287,11 +5352,11 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>156</v>
+      <c r="A26" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="26"/>
@@ -5300,37 +5365,65 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>134</v>
+    <row r="27" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="168">
   <si>
     <t>Договор</t>
   </si>
@@ -760,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -901,6 +901,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1258,11 +1261,9 @@
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1327,121 +1328,129 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B10" s="69" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B19" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B21" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1459,7 +1468,7 @@
   <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2073,7 +2082,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2268,11 +2277,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2280,12 +2287,12 @@
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2301,7 +2308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2309,7 +2316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
         <v>166</v>
       </c>
@@ -2317,7 +2324,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>155</v>
       </c>
@@ -2325,7 +2332,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2341,7 +2348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
         <v>14</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
         <v>137</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
@@ -2365,7 +2372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
         <v>30</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -2381,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
@@ -2389,33 +2396,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -2424,11 +2426,11 @@
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>111</v>
+      <c r="A18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -2437,29 +2439,42 @@
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="19"/>
+      <c r="A19" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B21" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2476,7 +2491,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2698,7 +2713,7 @@
   <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2896,11 +2911,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3047,25 +3060,34 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B21" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3274,9 +3296,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3407,42 +3429,51 @@
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B19" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B21" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3793,11 +3824,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3928,32 +3957,48 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B19" s="68" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B21" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3968,7 +4013,9 @@
   </sheetPr>
   <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5074,9 +5121,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="175">
   <si>
     <t>Договор</t>
   </si>
@@ -563,6 +563,27 @@
   </si>
   <si>
     <t>ReplicationId</t>
+  </si>
+  <si>
+    <t>каталог актива, владелец и т.д.</t>
+  </si>
+  <si>
+    <t>предшественник, основание и т.д.</t>
+  </si>
+  <si>
+    <t>ViewId</t>
+  </si>
+  <si>
+    <t>предшественник, основание, владелец и т.д.</t>
+  </si>
+  <si>
+    <t>основной, предшественник, владелец, основание и т.д.</t>
+  </si>
+  <si>
+    <t>ДДС оплаты официальный и т.д.</t>
+  </si>
+  <si>
+    <t>основная, владелец, предшественник, скидка и т.д.</t>
   </si>
 </sst>
 </file>
@@ -760,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -904,6 +925,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1465,11 +1487,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1600,51 +1620,62 @@
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B20" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -1657,11 +1688,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1800,63 +1829,74 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B21" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B23" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>164</v>
-      </c>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1872,11 +1912,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2019,53 +2057,70 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B20" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2079,11 +2134,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2221,49 +2274,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B20" s="68" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2710,11 +2774,9 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D22"/>
+  <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2851,52 +2913,63 @@
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B20" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3101,7 +3174,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -3237,53 +3310,64 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>111</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3298,7 +3382,7 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AppData" sheetId="399" r:id="rId4"/>
     <sheet name="AppMeter" sheetId="481" r:id="rId5"/>
     <sheet name="AppMark" sheetId="342" r:id="rId6"/>
-    <sheet name="Sign" sheetId="254" r:id="rId7"/>
+    <sheet name="AppSign" sheetId="254" r:id="rId7"/>
     <sheet name="LogData" sheetId="236" r:id="rId8"/>
     <sheet name="OperationData" sheetId="30" r:id="rId9"/>
     <sheet name="Face" sheetId="41" r:id="rId10"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="177">
   <si>
     <t>Договор</t>
   </si>
@@ -442,9 +442,6 @@
     <t>RoleId</t>
   </si>
   <si>
-    <t>Sign</t>
-  </si>
-  <si>
     <t>SignId</t>
   </si>
   <si>
@@ -584,6 +581,15 @@
   </si>
   <si>
     <t>основная, владелец, предшественник, скидка и т.д.</t>
+  </si>
+  <si>
+    <t>AppSign</t>
+  </si>
+  <si>
+    <t>Знак приложения</t>
+  </si>
+  <si>
+    <t>AppSignId</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -926,6 +932,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1259,12 +1266,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1319,18 +1326,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1359,10 +1366,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1449,10 +1456,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1464,10 +1471,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1489,7 +1496,7 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1523,18 +1530,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1563,10 +1570,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1627,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1659,18 +1666,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1734,18 +1741,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1774,10 +1781,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1836,7 +1843,7 @@
         <v>108</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1868,18 +1875,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,12 +1899,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1949,18 +1956,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1989,10 +1996,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2065,7 +2072,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2103,19 +2110,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2173,10 +2180,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2189,10 +2196,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2213,10 +2220,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -2282,7 +2289,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,18 +2318,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2382,18 +2389,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2422,10 +2429,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2517,10 +2524,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2530,10 +2537,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2594,18 +2601,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2634,10 +2641,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2726,10 +2733,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2742,19 +2749,19 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2811,18 +2818,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2851,10 +2858,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="18"/>
     </row>
@@ -2920,7 +2927,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2952,19 +2959,19 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3020,18 +3027,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3060,10 +3067,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3143,19 +3150,19 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3213,18 +3220,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3253,10 +3260,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -3314,10 +3321,10 @@
         <v>55</v>
       </c>
       <c r="B17" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3350,19 +3357,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3417,18 +3424,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3457,10 +3464,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,18 +3548,18 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3946,18 +3953,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3986,10 +3993,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4066,18 +4073,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4112,15 +4119,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4133,18 +4140,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4248,10 +4255,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4281,15 +4288,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4302,18 +4309,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4417,10 +4424,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4455,15 +4462,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4476,18 +4483,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4591,10 +4598,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -4613,11 +4620,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4634,16 +4639,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4656,18 +4661,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4696,10 +4701,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4743,60 +4748,68 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B17" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B20" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4828,15 +4841,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4849,18 +4862,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4891,10 +4904,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4943,10 +4956,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4959,10 +4972,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4970,7 +4983,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5034,19 +5047,19 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="C28" s="27"/>
     </row>
@@ -5061,28 +5074,28 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>141</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>142</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -5159,12 +5172,12 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -5174,7 +5187,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -5184,12 +5197,12 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5226,15 +5239,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -5247,18 +5260,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5287,10 +5300,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5342,10 +5355,10 @@
     </row>
     <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="26"/>
@@ -5370,10 +5383,10 @@
     </row>
     <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="26"/>
@@ -5387,7 +5400,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="26"/>
@@ -5496,10 +5509,10 @@
     </row>
     <row r="27" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="26"/>
@@ -5510,10 +5523,10 @@
     </row>
     <row r="28" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="26"/>
@@ -5533,26 +5546,26 @@
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>141</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="177">
   <si>
     <t>Договор</t>
   </si>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -933,6 +933,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1363,6 +1373,9 @@
       <c r="B9" s="74" t="s">
         <v>17</v>
       </c>
+      <c r="C9" s="19" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
@@ -1921,7 +1934,9 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4102,10 +4117,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C19"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4114,7 +4129,7 @@
     <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4122,7 +4137,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>134</v>
       </c>
@@ -4130,7 +4145,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -4138,7 +4153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
         <v>165</v>
       </c>
@@ -4146,7 +4161,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>154</v>
       </c>
@@ -4154,7 +4169,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
@@ -4162,7 +4177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -4170,7 +4185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
         <v>14</v>
       </c>
@@ -4178,88 +4193,108 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B12" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B15" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B19" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>157</v>
       </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0"/>
@@ -4272,18 +4307,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4291,7 +4324,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>149</v>
       </c>
@@ -4299,7 +4332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -4307,7 +4340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
         <v>165</v>
       </c>
@@ -4315,7 +4348,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>154</v>
       </c>
@@ -4323,7 +4356,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
@@ -4331,7 +4364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -4339,7 +4372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
         <v>14</v>
       </c>
@@ -4347,92 +4380,117 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B12" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B15" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B18" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B19" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4445,10 +4503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4457,7 +4515,7 @@
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4465,7 +4523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -4473,7 +4531,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -4481,7 +4539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
         <v>165</v>
       </c>
@@ -4489,7 +4547,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>154</v>
       </c>
@@ -4497,7 +4555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
@@ -4505,7 +4563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -4513,7 +4571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
         <v>14</v>
       </c>
@@ -4521,93 +4579,110 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B12" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B15" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B19" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4622,7 +4697,9 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4824,8 +4901,8 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5218,7 +5295,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="178">
   <si>
     <t>Договор</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>AppSignId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role    </t>
   </si>
 </sst>
 </file>
@@ -3404,7 +3407,7 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3418,7 +3421,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -4309,7 +4312,7 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_Int-RUS_.xlsx
+++ b/AccBase_Specification_Int-RUS_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -1937,14 +1937,12 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2372,8 +2370,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3407,7 +3405,7 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4122,9 +4120,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4316,7 +4312,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -4508,9 +4505,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4700,15 +4695,12 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4904,14 +4896,12 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -5298,11 +5288,11 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="55" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
